--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\coding\python\Lambeth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4010ACA8-364F-4C6E-BCFF-C027F41F6179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68870C6F-2FEB-49F1-A89E-FDCCFB3D12BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="1605" windowWidth="26565" windowHeight="16140" xr2:uid="{CDD6314F-6CDB-4C94-9EE0-27A93E81B425}"/>
+    <workbookView xWindow="23790" yWindow="2385" windowWidth="26565" windowHeight="16140" xr2:uid="{CDD6314F-6CDB-4C94-9EE0-27A93E81B425}"/>
   </bookViews>
   <sheets>
     <sheet name="291220_1852" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="376">
   <si>
     <t>Office</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>eleighton@lambeth.gov.uk</t>
-  </si>
-  <si>
-    <t>SW2 5DG</t>
   </si>
   <si>
     <t>Public Sector Worker</t>
@@ -3906,7 +3903,7 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,13 +3941,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -3985,23 +3982,21 @@
         <v>7473042514</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3">
         <v>32295</v>
       </c>
-      <c r="K2" s="11">
-        <v>32</v>
-      </c>
+      <c r="K2" s="11"/>
       <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4009,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3">
         <v>44194</v>
@@ -4018,32 +4013,30 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="2">
         <v>7932014576</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3">
         <v>21827</v>
       </c>
-      <c r="K3" s="11">
-        <v>61</v>
-      </c>
+      <c r="K3" s="11"/>
       <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -4051,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>44194</v>
@@ -4060,32 +4053,30 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="2">
         <v>7537918615</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3">
         <v>29161</v>
       </c>
-      <c r="K4" s="11">
-        <v>41</v>
-      </c>
+      <c r="K4" s="11"/>
       <c r="L4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4093,7 +4084,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>44194</v>
@@ -4102,32 +4093,30 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="2">
         <v>7851091086</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3">
         <v>20422</v>
       </c>
-      <c r="K5" s="11">
-        <v>65</v>
-      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4135,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3">
         <v>44194</v>
@@ -4144,32 +4133,30 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>7958060832</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3">
         <v>22758</v>
       </c>
-      <c r="K6" s="11">
-        <v>58</v>
-      </c>
+      <c r="K6" s="11"/>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -4177,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>44194</v>
@@ -4186,32 +4173,30 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>7947787451</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3">
         <v>22084</v>
       </c>
-      <c r="K7" s="11">
-        <v>60</v>
-      </c>
+      <c r="K7" s="11"/>
       <c r="L7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -4219,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>44194</v>
@@ -4228,32 +4213,30 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="2">
         <v>7956141652</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3">
         <v>26158</v>
       </c>
-      <c r="K8" s="11">
-        <v>49</v>
-      </c>
+      <c r="K8" s="11"/>
       <c r="L8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4261,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
         <v>44194</v>
@@ -4270,32 +4253,30 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>7598144654</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3">
         <v>23961</v>
       </c>
-      <c r="K9" s="11">
-        <v>55</v>
-      </c>
+      <c r="K9" s="11"/>
       <c r="L9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4303,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>44194</v>
@@ -4312,32 +4293,30 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>7949697025</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3">
         <v>21142</v>
       </c>
-      <c r="K10" s="11">
-        <v>63</v>
-      </c>
+      <c r="K10" s="11"/>
       <c r="L10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4354,32 +4333,30 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G11" s="2">
         <v>7785694585</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3">
         <v>22807</v>
       </c>
-      <c r="K11" s="11">
-        <v>58</v>
-      </c>
+      <c r="K11" s="11"/>
       <c r="L11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -4387,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3">
         <v>44194</v>
@@ -4396,29 +4373,27 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="2">
         <v>7852313121</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3">
         <v>26515</v>
       </c>
-      <c r="K12" s="11">
-        <v>48</v>
-      </c>
+      <c r="K12" s="11"/>
       <c r="L12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -4427,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>44194</v>
@@ -4436,32 +4411,30 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G13" s="2">
         <v>7587451219</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3">
         <v>33335</v>
       </c>
-      <c r="K13" s="11">
-        <v>29</v>
-      </c>
+      <c r="K13" s="11"/>
       <c r="L13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4469,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>44194</v>
@@ -4478,32 +4451,30 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G14" s="2">
         <v>7834155078</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3">
         <v>28797</v>
       </c>
-      <c r="K14" s="11">
-        <v>42</v>
-      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4511,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3">
         <v>44194</v>
@@ -4520,32 +4491,30 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G15" s="2">
         <v>7425169419</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3">
         <v>34627</v>
       </c>
-      <c r="K15" s="11">
-        <v>26</v>
-      </c>
+      <c r="K15" s="11"/>
       <c r="L15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="48" x14ac:dyDescent="0.25">
@@ -4553,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>44194</v>
@@ -4562,32 +4531,30 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G16" s="2">
         <v>7736472590</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3">
         <v>26817</v>
       </c>
-      <c r="K16" s="11">
-        <v>47</v>
-      </c>
+      <c r="K16" s="11"/>
       <c r="L16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4604,32 +4571,30 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="2">
         <v>7783802087</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3">
         <v>35117</v>
       </c>
-      <c r="K17" s="11">
-        <v>24</v>
-      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4637,7 +4602,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>44194</v>
@@ -4646,32 +4611,30 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="G18" s="2">
         <v>7958028258</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3">
         <v>23053</v>
       </c>
-      <c r="K18" s="11">
-        <v>57</v>
-      </c>
+      <c r="K18" s="11"/>
       <c r="L18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -4679,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
         <v>44194</v>
@@ -4688,32 +4651,30 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G19" s="2">
         <v>7724425461</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3">
         <v>26498</v>
       </c>
-      <c r="K19" s="11">
-        <v>48</v>
-      </c>
+      <c r="K19" s="11"/>
       <c r="L19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4721,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>44194</v>
@@ -4730,32 +4691,30 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G20" s="2">
         <v>7778633431</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3">
         <v>32154</v>
       </c>
-      <c r="K20" s="11">
-        <v>32</v>
-      </c>
+      <c r="K20" s="11"/>
       <c r="L20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4763,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3">
         <v>44194</v>
@@ -4772,32 +4731,30 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G21" s="2">
         <v>7932949788</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3">
         <v>29371</v>
       </c>
-      <c r="K21" s="11">
-        <v>40</v>
-      </c>
+      <c r="K21" s="11"/>
       <c r="L21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4814,32 +4771,30 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G22" s="2">
         <v>7719870817</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="3">
         <v>24638</v>
       </c>
-      <c r="K22" s="11">
-        <v>53</v>
-      </c>
+      <c r="K22" s="11"/>
       <c r="L22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4847,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3">
         <v>44194</v>
@@ -4856,32 +4811,30 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G23" s="2">
         <v>7941478268</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3">
         <v>22732</v>
       </c>
-      <c r="K23" s="11">
-        <v>58</v>
-      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -4889,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3">
         <v>44194</v>
@@ -4898,32 +4851,30 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G24" s="2">
         <v>7867352371</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3">
         <v>22528</v>
       </c>
-      <c r="K24" s="11">
-        <v>59</v>
-      </c>
+      <c r="K24" s="11"/>
       <c r="L24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -4931,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3">
         <v>44194</v>
@@ -4940,32 +4891,30 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G25" s="2">
         <v>7981789076</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="3">
         <v>27673</v>
       </c>
-      <c r="K25" s="11">
-        <v>45</v>
-      </c>
+      <c r="K25" s="11"/>
       <c r="L25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -4973,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
         <v>44194</v>
@@ -4982,32 +4931,30 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G26" s="2">
         <v>7564214360</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="3">
         <v>31168</v>
       </c>
-      <c r="K26" s="11">
-        <v>35</v>
-      </c>
+      <c r="K26" s="11"/>
       <c r="L26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5024,32 +4971,30 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G27" s="2">
         <v>7970265478</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="3">
         <v>20522</v>
       </c>
-      <c r="K27" s="11">
-        <v>64</v>
-      </c>
+      <c r="K27" s="11"/>
       <c r="L27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5057,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3">
         <v>44194</v>
@@ -5066,32 +5011,30 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G28" s="2">
         <v>7740947742</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="3">
         <v>22551</v>
       </c>
-      <c r="K28" s="11">
-        <v>59</v>
-      </c>
+      <c r="K28" s="11"/>
       <c r="L28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -5099,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3">
         <v>44194</v>
@@ -5108,32 +5051,30 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G29" s="2">
         <v>7587025758</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="3">
         <v>24249</v>
       </c>
-      <c r="K29" s="11">
-        <v>54</v>
-      </c>
+      <c r="K29" s="11"/>
       <c r="L29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5141,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3">
         <v>44194</v>
@@ -5150,32 +5091,30 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G30" s="2">
         <v>7970986156</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="3">
         <v>19607</v>
       </c>
-      <c r="K30" s="11">
-        <v>67</v>
-      </c>
+      <c r="K30" s="11"/>
       <c r="L30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5192,32 +5131,30 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G31" s="2">
         <v>7437004400</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3">
         <v>28111</v>
       </c>
-      <c r="K31" s="11">
-        <v>44</v>
-      </c>
+      <c r="K31" s="11"/>
       <c r="L31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -5225,7 +5162,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3">
         <v>44194</v>
@@ -5234,32 +5171,30 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="3">
         <v>25613</v>
       </c>
-      <c r="K32" s="11">
-        <v>50</v>
-      </c>
+      <c r="K32" s="11"/>
       <c r="L32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -5267,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3">
         <v>44194</v>
@@ -5276,32 +5211,30 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G33" s="2">
         <v>7958515335</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="3">
         <v>22889</v>
       </c>
-      <c r="K33" s="11">
-        <v>58</v>
-      </c>
+      <c r="K33" s="11"/>
       <c r="L33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5309,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3">
         <v>44194</v>
@@ -5318,32 +5251,30 @@
         <v>0.625</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="3">
         <v>25239</v>
       </c>
-      <c r="K34" s="11">
-        <v>51</v>
-      </c>
+      <c r="K34" s="11"/>
       <c r="L34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5360,32 +5291,30 @@
         <v>0.625</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G35" s="2">
         <v>7795460079</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="3">
         <v>25463</v>
       </c>
-      <c r="K35" s="11">
-        <v>51</v>
-      </c>
+      <c r="K35" s="11"/>
       <c r="L35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="48" x14ac:dyDescent="0.25">
@@ -5393,7 +5322,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3">
         <v>44194</v>
@@ -5402,32 +5331,30 @@
         <v>0.625</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="G36" s="2">
         <v>7719029631</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="3">
         <v>34899</v>
       </c>
-      <c r="K36" s="11">
-        <v>25</v>
-      </c>
+      <c r="K36" s="11"/>
       <c r="L36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -5435,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3">
         <v>44194</v>
@@ -5444,32 +5371,30 @@
         <v>0.625</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G37" s="2">
         <v>7508044153</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="3">
         <v>32628</v>
       </c>
-      <c r="K37" s="11">
-        <v>31</v>
-      </c>
+      <c r="K37" s="11"/>
       <c r="L37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5477,7 +5402,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>44194</v>
@@ -5486,32 +5411,30 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G38" s="2">
         <v>7582618962</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="3">
         <v>30233</v>
       </c>
-      <c r="K38" s="11">
-        <v>38</v>
-      </c>
+      <c r="K38" s="11"/>
       <c r="L38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5528,32 +5451,30 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="3">
         <v>20421</v>
       </c>
-      <c r="K39" s="11">
-        <v>65</v>
-      </c>
+      <c r="K39" s="11"/>
       <c r="L39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5561,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3">
         <v>44194</v>
@@ -5570,32 +5491,30 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G40" s="2">
         <v>7792192097</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="3">
         <v>32653</v>
       </c>
-      <c r="K40" s="11">
-        <v>31</v>
-      </c>
+      <c r="K40" s="11"/>
       <c r="L40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="48" x14ac:dyDescent="0.25">
@@ -5603,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>44194</v>
@@ -5612,32 +5531,30 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G41" s="2">
         <v>7884183658</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="3">
         <v>25734</v>
       </c>
-      <c r="K41" s="11">
-        <v>50</v>
-      </c>
+      <c r="K41" s="11"/>
       <c r="L41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5654,32 +5571,30 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="G42" s="2">
         <v>7973631399</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="3">
         <v>23984</v>
       </c>
-      <c r="K42" s="11">
-        <v>55</v>
-      </c>
+      <c r="K42" s="11"/>
       <c r="L42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5687,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3">
         <v>44194</v>
@@ -5696,32 +5611,30 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="G43" s="2">
         <v>7772667609</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="3">
         <v>33510</v>
       </c>
-      <c r="K43" s="11">
-        <v>29</v>
-      </c>
+      <c r="K43" s="11"/>
       <c r="L43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -5729,7 +5642,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="3">
         <v>44194</v>
@@ -5738,32 +5651,30 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="G44" s="2">
         <v>7861836579</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="3">
         <v>34275</v>
       </c>
-      <c r="K44" s="11">
-        <v>27</v>
-      </c>
+      <c r="K44" s="11"/>
       <c r="L44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -5780,32 +5691,30 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="G45" s="2">
         <v>7932251340</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="3">
         <v>20239</v>
       </c>
-      <c r="K45" s="11">
-        <v>65</v>
-      </c>
+      <c r="K45" s="11"/>
       <c r="L45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -5813,7 +5722,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="3">
         <v>44194</v>
@@ -5822,32 +5731,30 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="G46" s="2">
         <v>7904619230</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="3">
         <v>31208</v>
       </c>
-      <c r="K46" s="11">
-        <v>35</v>
-      </c>
+      <c r="K46" s="11"/>
       <c r="L46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="48" x14ac:dyDescent="0.25">
@@ -5855,7 +5762,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3">
         <v>44194</v>
@@ -5864,29 +5771,27 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="G47" s="2">
         <v>7398628591</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="3">
         <v>33089</v>
       </c>
-      <c r="K47" s="11">
-        <v>30</v>
-      </c>
+      <c r="K47" s="11"/>
       <c r="L47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N47" s="2"/>
     </row>
@@ -5895,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="3">
         <v>44195</v>
@@ -5904,29 +5809,27 @@
         <v>0.375</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G48" s="2">
         <v>7956272286</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="3">
         <v>21519</v>
       </c>
-      <c r="K48" s="11">
-        <v>62</v>
-      </c>
+      <c r="K48" s="11"/>
       <c r="L48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N48" s="2"/>
     </row>
@@ -5944,29 +5847,27 @@
         <v>0.375</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G49" s="2">
         <v>447916030565</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="3">
         <v>25096</v>
       </c>
-      <c r="K49" s="11">
-        <v>52</v>
-      </c>
+      <c r="K49" s="11"/>
       <c r="L49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N49" s="2"/>
     </row>
@@ -5975,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="3">
         <v>44195</v>
@@ -5984,29 +5885,27 @@
         <v>0.375</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="G50" s="2">
         <v>7843103228</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="3">
         <v>26006</v>
       </c>
-      <c r="K50" s="11">
-        <v>49</v>
-      </c>
+      <c r="K50" s="11"/>
       <c r="L50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N50" s="2"/>
     </row>
@@ -6015,7 +5914,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="3">
         <v>44195</v>
@@ -6024,29 +5923,27 @@
         <v>0.375</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G51" s="2">
         <v>7956527060</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="3">
         <v>30912</v>
       </c>
-      <c r="K51" s="11">
-        <v>36</v>
-      </c>
+      <c r="K51" s="11"/>
       <c r="L51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N51" s="2"/>
     </row>
@@ -6055,7 +5952,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="3">
         <v>44195</v>
@@ -6064,29 +5961,27 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="G52" s="2">
         <v>7415948359</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="3">
         <v>34099</v>
       </c>
-      <c r="K52" s="11">
-        <v>27</v>
-      </c>
+      <c r="K52" s="11"/>
       <c r="L52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N52" s="2"/>
     </row>
@@ -6104,29 +5999,27 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G53" s="2">
         <v>7876684393</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="3">
         <v>23316</v>
       </c>
-      <c r="K53" s="11">
-        <v>57</v>
-      </c>
+      <c r="K53" s="11"/>
       <c r="L53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N53" s="2"/>
     </row>
@@ -6135,7 +6028,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="3">
         <v>44195</v>
@@ -6144,29 +6037,27 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="G54" s="2">
         <v>7903757492</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="3">
         <v>31344</v>
       </c>
-      <c r="K54" s="11">
-        <v>35</v>
-      </c>
+      <c r="K54" s="11"/>
       <c r="L54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="N54" s="2"/>
     </row>
@@ -6184,29 +6075,27 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G55" s="2">
         <v>7984431977</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="3">
         <v>23649</v>
       </c>
-      <c r="K55" s="11">
-        <v>56</v>
-      </c>
+      <c r="K55" s="11"/>
       <c r="L55" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N55" s="2"/>
     </row>
@@ -6215,7 +6104,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="3">
         <v>44195</v>
@@ -6224,29 +6113,27 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G56" s="2">
         <v>7710026135</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="3">
         <v>24093</v>
       </c>
-      <c r="K56" s="11">
-        <v>55</v>
-      </c>
+      <c r="K56" s="11"/>
       <c r="L56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N56" s="2"/>
     </row>
@@ -6255,7 +6142,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" s="3">
         <v>44195</v>
@@ -6264,27 +6151,25 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="3">
         <v>36526</v>
       </c>
-      <c r="K57" s="11">
-        <v>21</v>
-      </c>
+      <c r="K57" s="11"/>
       <c r="L57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N57" s="2"/>
     </row>
@@ -6293,7 +6178,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="3">
         <v>44195</v>
@@ -6302,29 +6187,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="G58" s="2">
         <v>7983445006</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="3">
         <v>29829</v>
       </c>
-      <c r="K58" s="11">
-        <v>39</v>
-      </c>
+      <c r="K58" s="11"/>
       <c r="L58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N58" s="2"/>
     </row>
@@ -6342,29 +6225,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="G59" s="2">
         <v>7398149173</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="3">
         <v>30646</v>
       </c>
-      <c r="K59" s="11">
-        <v>37</v>
-      </c>
+      <c r="K59" s="11"/>
       <c r="L59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N59" s="2"/>
     </row>
@@ -6373,7 +6254,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="3">
         <v>44195</v>
@@ -6382,29 +6263,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G60" s="2">
         <v>7720258900</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="3">
         <v>32379</v>
       </c>
-      <c r="K60" s="11">
-        <v>32</v>
-      </c>
+      <c r="K60" s="11"/>
       <c r="L60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N60" s="2"/>
     </row>
@@ -6413,7 +6292,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="3">
         <v>44195</v>
@@ -6422,29 +6301,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="G61" s="2">
         <v>7714746635</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="3">
         <v>30853</v>
       </c>
-      <c r="K61" s="11">
-        <v>36</v>
-      </c>
+      <c r="K61" s="11"/>
       <c r="L61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N61" s="2"/>
     </row>
@@ -6453,7 +6330,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="3">
         <v>44195</v>
@@ -6462,29 +6339,27 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G62" s="2">
         <v>7886453076</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="3">
         <v>27082</v>
       </c>
-      <c r="K62" s="11">
-        <v>46</v>
-      </c>
+      <c r="K62" s="11"/>
       <c r="L62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N62" s="2"/>
     </row>
@@ -6502,29 +6377,27 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G63" s="2">
         <v>7742169501</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="3">
         <v>25311</v>
       </c>
-      <c r="K63" s="11">
-        <v>51</v>
-      </c>
+      <c r="K63" s="11"/>
       <c r="L63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N63" s="2"/>
     </row>
@@ -6533,7 +6406,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="3">
         <v>44195</v>
@@ -6542,29 +6415,27 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="G64" s="2">
         <v>7795183869</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="3">
         <v>34869</v>
       </c>
-      <c r="K64" s="11">
-        <v>25</v>
-      </c>
+      <c r="K64" s="11"/>
       <c r="L64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N64" s="2"/>
     </row>
@@ -6573,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" s="3">
         <v>44195</v>
@@ -6582,27 +6453,25 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="3">
         <v>36526</v>
       </c>
-      <c r="K65" s="11">
-        <v>21</v>
-      </c>
+      <c r="K65" s="11"/>
       <c r="L65" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N65" s="2"/>
     </row>
@@ -6611,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="3">
         <v>44195</v>
@@ -6620,29 +6489,27 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G66" s="2">
         <v>7702330335</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="3">
         <v>25353</v>
       </c>
-      <c r="K66" s="11">
-        <v>51</v>
-      </c>
+      <c r="K66" s="11"/>
       <c r="L66" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N66" s="2"/>
     </row>
@@ -6660,30 +6527,28 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="3">
         <v>36526</v>
       </c>
-      <c r="K67" s="11">
-        <v>21</v>
-      </c>
+      <c r="K67" s="11"/>
       <c r="L67" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -6691,7 +6556,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" s="3">
         <v>44195</v>
@@ -6700,29 +6565,27 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="G68" s="2">
         <v>447988338551</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="3">
         <v>34176</v>
       </c>
-      <c r="K68" s="11">
-        <v>27</v>
-      </c>
+      <c r="K68" s="11"/>
       <c r="L68" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N68" s="2"/>
     </row>
@@ -6740,29 +6603,27 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="G69" s="2">
         <v>7746436885</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="3">
         <v>34661</v>
       </c>
-      <c r="K69" s="11">
-        <v>26</v>
-      </c>
+      <c r="K69" s="11"/>
       <c r="L69" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N69" s="2"/>
     </row>
@@ -6771,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" s="3">
         <v>44195</v>
@@ -6780,29 +6641,27 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="G70" s="2">
         <v>7917355255</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="3">
         <v>31105</v>
       </c>
-      <c r="K70" s="11">
-        <v>35</v>
-      </c>
+      <c r="K70" s="11"/>
       <c r="L70" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N70" s="2"/>
     </row>
@@ -6811,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="3">
         <v>44195</v>
@@ -6820,29 +6679,27 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="G71" s="2">
         <v>7917355255</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="3">
         <v>31105</v>
       </c>
-      <c r="K71" s="11">
-        <v>35</v>
-      </c>
+      <c r="K71" s="11"/>
       <c r="L71" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N71" s="2"/>
     </row>
@@ -6851,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="3">
         <v>44195</v>
@@ -6860,29 +6717,27 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="G72" s="2">
         <v>7831504508</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="3">
         <v>22298</v>
       </c>
-      <c r="K72" s="11">
-        <v>59</v>
-      </c>
+      <c r="K72" s="11"/>
       <c r="L72" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N72" s="2"/>
     </row>
@@ -6900,29 +6755,27 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="G73" s="2">
         <v>7446848347</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="3">
         <v>29115</v>
       </c>
-      <c r="K73" s="11">
-        <v>41</v>
-      </c>
+      <c r="K73" s="11"/>
       <c r="L73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N73" s="2"/>
     </row>
@@ -6931,7 +6784,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="3">
         <v>44195</v>
@@ -6940,29 +6793,27 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="G74" s="2">
         <v>7940228265</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="3">
         <v>30650</v>
       </c>
-      <c r="K74" s="11">
-        <v>37</v>
-      </c>
+      <c r="K74" s="11"/>
       <c r="L74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N74" s="2"/>
     </row>
@@ -6971,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" s="3">
         <v>44195</v>
@@ -6980,29 +6831,27 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="G75" s="2">
         <v>7904183137</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="3">
         <v>20857</v>
       </c>
-      <c r="K75" s="11">
-        <v>63</v>
-      </c>
+      <c r="K75" s="11"/>
       <c r="L75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N75" s="2"/>
     </row>
@@ -7011,7 +6860,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" s="3">
         <v>44195</v>
@@ -7020,29 +6869,27 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="G76" s="2">
         <v>7956252592</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="3">
         <v>19653</v>
       </c>
-      <c r="K76" s="11">
-        <v>67</v>
-      </c>
+      <c r="K76" s="11"/>
       <c r="L76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N76" s="2"/>
     </row>
@@ -7060,29 +6907,27 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="G77" s="2">
         <v>7766218044</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="3">
         <v>22420</v>
       </c>
-      <c r="K77" s="11">
-        <v>59</v>
-      </c>
+      <c r="K77" s="11"/>
       <c r="L77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N77" s="2"/>
     </row>
@@ -7091,7 +6936,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="3">
         <v>44195</v>
@@ -7100,29 +6945,27 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="G78" s="2">
         <v>7541721933</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="3">
         <v>24305</v>
       </c>
-      <c r="K78" s="11">
-        <v>54</v>
-      </c>
+      <c r="K78" s="11"/>
       <c r="L78" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N78" s="2"/>
     </row>
@@ -7140,29 +6983,27 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="G79" s="2">
         <v>7597962983</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="3">
         <v>26462</v>
       </c>
-      <c r="K79" s="11">
-        <v>48</v>
-      </c>
+      <c r="K79" s="11"/>
       <c r="L79" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N79" s="2"/>
     </row>
@@ -7171,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="3">
         <v>44195</v>
@@ -7180,29 +7021,27 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="G80" s="2">
         <v>7414652292</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="3">
         <v>30466</v>
       </c>
-      <c r="K80" s="11">
-        <v>37</v>
-      </c>
+      <c r="K80" s="11"/>
       <c r="L80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N80" s="2"/>
     </row>
@@ -7220,29 +7059,27 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="G81" s="2">
         <v>7367283929</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="3">
         <v>33235</v>
       </c>
-      <c r="K81" s="11">
-        <v>30</v>
-      </c>
+      <c r="K81" s="11"/>
       <c r="L81" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N81" s="2"/>
     </row>
@@ -7251,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="3">
         <v>44195</v>
@@ -7260,29 +7097,27 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="G82" s="2">
         <v>7909766334</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="3">
         <v>35015</v>
       </c>
-      <c r="K82" s="11">
-        <v>25</v>
-      </c>
+      <c r="K82" s="11"/>
       <c r="L82" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N82" s="2"/>
     </row>
@@ -7300,29 +7135,27 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="G83" s="2">
         <v>7393415005</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="3">
         <v>27420</v>
       </c>
-      <c r="K83" s="11">
-        <v>45</v>
-      </c>
+      <c r="K83" s="11"/>
       <c r="L83" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N83" s="2"/>
     </row>
@@ -7331,7 +7164,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" s="3">
         <v>44195</v>
@@ -7340,29 +7173,27 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="G84" s="2">
         <v>7957171346</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="3">
         <v>30697</v>
       </c>
-      <c r="K84" s="11">
-        <v>36</v>
-      </c>
+      <c r="K84" s="11"/>
       <c r="L84" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N84" s="2"/>
     </row>
@@ -7371,7 +7202,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" s="3">
         <v>44195</v>
@@ -7380,29 +7211,27 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="G85" s="2">
         <v>7587150537</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="3">
         <v>36088</v>
       </c>
-      <c r="K85" s="11">
-        <v>22</v>
-      </c>
+      <c r="K85" s="11"/>
       <c r="L85" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N85" s="2"/>
     </row>
@@ -7411,7 +7240,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="3">
         <v>44195</v>
@@ -7420,29 +7249,27 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="G86" s="2">
         <v>7946050821</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="3">
         <v>24235</v>
       </c>
-      <c r="K86" s="11">
-        <v>54</v>
-      </c>
+      <c r="K86" s="11"/>
       <c r="L86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N86" s="2"/>
     </row>
@@ -7460,29 +7287,27 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="G87" s="2">
         <v>7766115354</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="3">
         <v>29475</v>
       </c>
-      <c r="K87" s="11">
-        <v>40</v>
-      </c>
+      <c r="K87" s="11"/>
       <c r="L87" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N87" s="2"/>
     </row>
@@ -7491,7 +7316,7 @@
         <v>12</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="3">
         <v>44195</v>
@@ -7500,29 +7325,27 @@
         <v>0.625</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="G88" s="2">
         <v>7539444583</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="3">
         <v>31230</v>
       </c>
-      <c r="K88" s="11">
-        <v>35</v>
-      </c>
+      <c r="K88" s="11"/>
       <c r="L88" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N88" s="2"/>
     </row>
@@ -7540,29 +7363,27 @@
         <v>0.625</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="3">
         <v>20871</v>
       </c>
-      <c r="K89" s="11">
-        <v>63</v>
-      </c>
+      <c r="K89" s="11"/>
       <c r="L89" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N89" s="2"/>
     </row>
@@ -7571,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" s="3">
         <v>44195</v>
@@ -7580,29 +7401,27 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="G90" s="2">
         <v>7930554037</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="3">
         <v>32488</v>
       </c>
-      <c r="K90" s="11">
-        <v>32</v>
-      </c>
+      <c r="K90" s="11"/>
       <c r="L90" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N90" s="2"/>
     </row>
@@ -7620,29 +7439,27 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="G91" s="2">
         <v>7961323317</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="3">
         <v>28862</v>
       </c>
-      <c r="K91" s="11">
-        <v>41</v>
-      </c>
+      <c r="K91" s="11"/>
       <c r="L91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N91" s="2"/>
     </row>
@@ -7651,7 +7468,7 @@
         <v>12</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" s="3">
         <v>44195</v>
@@ -7660,29 +7477,27 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="G92" s="2">
         <v>7999019910</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="3">
         <v>25977</v>
       </c>
-      <c r="K92" s="11">
-        <v>49</v>
-      </c>
+      <c r="K92" s="11"/>
       <c r="L92" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N92" s="2"/>
     </row>
@@ -7691,7 +7506,7 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="3">
         <v>44196</v>
@@ -7700,29 +7515,27 @@
         <v>0.375</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="3">
         <v>25198</v>
       </c>
-      <c r="K93" s="11">
-        <v>52</v>
-      </c>
+      <c r="K93" s="11"/>
       <c r="L93" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N93" s="2"/>
     </row>
@@ -7740,29 +7553,27 @@
         <v>0.375</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="G94" s="2">
         <v>7342167590</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="3">
         <v>27570</v>
       </c>
-      <c r="K94" s="11">
-        <v>45</v>
-      </c>
+      <c r="K94" s="11"/>
       <c r="L94" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N94" s="2"/>
     </row>
@@ -7771,7 +7582,7 @@
         <v>12</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" s="3">
         <v>44196</v>
@@ -7780,29 +7591,27 @@
         <v>0.375</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="G95" s="2">
         <v>7857032223</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="3">
         <v>31524</v>
       </c>
-      <c r="K95" s="11">
-        <v>34</v>
-      </c>
+      <c r="K95" s="11"/>
       <c r="L95" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N95" s="2"/>
     </row>
@@ -7811,7 +7620,7 @@
         <v>12</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C96" s="3">
         <v>44196</v>
@@ -7820,29 +7629,27 @@
         <v>0.375</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="G96" s="2">
         <v>7961813371</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="3">
         <v>24161</v>
       </c>
-      <c r="K96" s="11">
-        <v>54</v>
-      </c>
+      <c r="K96" s="11"/>
       <c r="L96" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N96" s="2"/>
     </row>
@@ -7851,7 +7658,7 @@
         <v>12</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" s="3">
         <v>44196</v>
@@ -7860,29 +7667,27 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="G97" s="2">
         <v>7947524868</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="3">
         <v>31361</v>
       </c>
-      <c r="K97" s="11">
-        <v>35</v>
-      </c>
+      <c r="K97" s="11"/>
       <c r="L97" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N97" s="2"/>
     </row>
@@ -7900,29 +7705,27 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="G98" s="2">
         <v>7948502303</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="3">
         <v>25012</v>
       </c>
-      <c r="K98" s="11">
-        <v>52</v>
-      </c>
+      <c r="K98" s="11"/>
       <c r="L98" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N98" s="2"/>
     </row>
@@ -7931,7 +7734,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" s="3">
         <v>44196</v>
@@ -7940,29 +7743,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="G99" s="2">
         <v>7795430503</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="3">
         <v>29813</v>
       </c>
-      <c r="K99" s="11">
-        <v>39</v>
-      </c>
+      <c r="K99" s="11"/>
       <c r="L99" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N99" s="2"/>
     </row>
@@ -7980,29 +7781,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="G100" s="2">
         <v>7946348741</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="3">
         <v>20971</v>
       </c>
-      <c r="K100" s="11">
-        <v>63</v>
-      </c>
+      <c r="K100" s="11"/>
       <c r="L100" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N100" s="2"/>
     </row>
@@ -8011,7 +7810,7 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" s="3">
         <v>44196</v>
@@ -8020,29 +7819,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="G101" s="2">
         <v>7956107856</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="3">
         <v>29080</v>
       </c>
-      <c r="K101" s="11">
-        <v>41</v>
-      </c>
+      <c r="K101" s="11"/>
       <c r="L101" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N101" s="2"/>
     </row>
@@ -8051,7 +7848,7 @@
         <v>12</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C102" s="3">
         <v>44196</v>
@@ -8060,29 +7857,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="G102" s="2">
         <v>7541979783</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="3">
         <v>34772</v>
       </c>
-      <c r="K102" s="11">
-        <v>25</v>
-      </c>
+      <c r="K102" s="11"/>
       <c r="L102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N102" s="2"/>
     </row>
@@ -8091,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" s="3">
         <v>44196</v>
@@ -8100,29 +7895,27 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="G103" s="2">
         <v>7881385620</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="3">
         <v>27956</v>
       </c>
-      <c r="K103" s="11">
-        <v>44</v>
-      </c>
+      <c r="K103" s="11"/>
       <c r="L103" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N103" s="2"/>
     </row>
@@ -8131,7 +7924,7 @@
         <v>12</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" s="3">
         <v>44196</v>
@@ -8140,29 +7933,27 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="G104" s="2">
         <v>7986510368</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="3">
         <v>23112</v>
       </c>
-      <c r="K104" s="11">
-        <v>57</v>
-      </c>
+      <c r="K104" s="11"/>
       <c r="L104" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N104" s="2"/>
     </row>
@@ -8180,29 +7971,27 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="3">
         <v>21392</v>
       </c>
-      <c r="K105" s="11">
-        <v>62</v>
-      </c>
+      <c r="K105" s="11"/>
       <c r="L105" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N105" s="2"/>
     </row>
@@ -8211,7 +8000,7 @@
         <v>12</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" s="3">
         <v>44196</v>
@@ -8220,29 +8009,27 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="G106" s="2">
         <v>7943877121</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="3">
         <v>20801</v>
       </c>
-      <c r="K106" s="11">
-        <v>64</v>
-      </c>
+      <c r="K106" s="11"/>
       <c r="L106" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N106" s="2"/>
     </row>
@@ -8251,7 +8038,7 @@
         <v>12</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" s="3">
         <v>44196</v>
@@ -8260,29 +8047,27 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="G107" s="2">
         <v>7508013746</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="3">
         <v>21930</v>
       </c>
-      <c r="K107" s="11">
-        <v>60</v>
-      </c>
+      <c r="K107" s="11"/>
       <c r="L107" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N107" s="2"/>
     </row>
@@ -8291,7 +8076,7 @@
         <v>12</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C108" s="3">
         <v>44196</v>
@@ -8300,29 +8085,27 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="G108" s="2">
         <v>7908368230</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="3">
         <v>23738</v>
       </c>
-      <c r="K108" s="11">
-        <v>56</v>
-      </c>
+      <c r="K108" s="11"/>
       <c r="L108" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N108" s="2"/>
     </row>
@@ -8331,7 +8114,7 @@
         <v>12</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109" s="3">
         <v>44196</v>
@@ -8340,29 +8123,27 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="G109" s="2">
         <v>7754524706</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="3">
         <v>26627</v>
       </c>
-      <c r="K109" s="11">
-        <v>48</v>
-      </c>
+      <c r="K109" s="11"/>
       <c r="L109" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N109" s="2"/>
     </row>
@@ -8371,7 +8152,7 @@
         <v>12</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110" s="3">
         <v>44196</v>
@@ -8380,29 +8161,27 @@
         <v>0.625</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="G110" s="2">
         <v>7984530502</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="3">
         <v>27974</v>
       </c>
-      <c r="K110" s="11">
-        <v>44</v>
-      </c>
+      <c r="K110" s="11"/>
       <c r="L110" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N110" s="2"/>
     </row>
@@ -8420,29 +8199,27 @@
         <v>0.625</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G111" s="2">
         <v>7740309746</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="3">
         <v>23137</v>
       </c>
-      <c r="K111" s="11">
-        <v>57</v>
-      </c>
+      <c r="K111" s="11"/>
       <c r="L111" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N111" s="5"/>
     </row>
@@ -8476,10 +8253,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8508,13 +8285,13 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" s="7">
         <v>110</v>
@@ -8522,17 +8299,17 @@
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -8542,9 +8319,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8759,27 +8539,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF90F5AD-68E6-4B34-B9D7-B69E30ACCE35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C05678-781C-4A8E-AC16-86E2EEAEA3E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb3ffa9e-0ab1-4f88-bb0c-bf8520b9a795"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5536663b-bd50-4052-9d58-3c7210ae4d18"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8804,9 +8572,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C05678-781C-4A8E-AC16-86E2EEAEA3E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF90F5AD-68E6-4B34-B9D7-B69E30ACCE35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb3ffa9e-0ab1-4f88-bb0c-bf8520b9a795"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5536663b-bd50-4052-9d58-3c7210ae4d18"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>